--- a/smul.mapa.final.core/wwwroot/Atores_Urbanos.xlsx
+++ b/smul.mapa.final.core/wwwroot/Atores_Urbanos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,36 @@
     <t>E-mail</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Prefeitura Regional</t>
+  </si>
+  <si>
+    <t>Perfil Facebook</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Tempo de Atuação</t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Tematica</t>
+  </si>
+  <si>
     <t>Teste 1</t>
   </si>
   <si>
@@ -44,15 +74,75 @@
     <t>a.b@c</t>
   </si>
   <si>
+    <t>site.com</t>
+  </si>
+  <si>
+    <t>Aricanduva / Vila Formosa / Carrão</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>08275010</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Rua Mateus Mendes Pereira</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Associação</t>
+  </si>
+  <si>
+    <t>Publica</t>
+  </si>
+  <si>
     <t>Teste 2</t>
   </si>
   <si>
     <t>a..b@c</t>
   </si>
   <si>
+    <t>Vila Prudente</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>03215-040</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Rua Caxirim</t>
+  </si>
+  <si>
+    <t>Universidade</t>
+  </si>
+  <si>
     <t>Teste 3</t>
   </si>
   <si>
+    <t>Ipiranga</t>
+  </si>
+  <si>
+    <t>04177-470</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Rua Embaixador Fernando Lobo</t>
+  </si>
+  <si>
+    <t>Entidades</t>
+  </si>
+  <si>
     <t>Secretaria Municipal de Urbanismo e Licenciamento (SMUL)</t>
   </si>
   <si>
@@ -65,10 +155,61 @@
     <t>imprensasmul@prefeitura.sp.gov.br</t>
   </si>
   <si>
+    <t>gestaourbana.prefeitura.sp.gov.br</t>
+  </si>
+  <si>
+    <t>Sé</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PrefSP.smul/</t>
+  </si>
+  <si>
+    <t>01011-100</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>Rua São Bento</t>
+  </si>
+  <si>
+    <t>Poder Publico</t>
+  </si>
+  <si>
     <t>Teste 4</t>
   </si>
   <si>
+    <t>Ermelino Matarazzo</t>
+  </si>
+  <si>
+    <t>02875010</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Rua Carlos Lamarca</t>
+  </si>
+  <si>
+    <t>ONG</t>
+  </si>
+  <si>
     <t>Teste 5</t>
+  </si>
+  <si>
+    <t>Butantã</t>
+  </si>
+  <si>
+    <t>03178-200</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Rua Joá</t>
+  </si>
+  <si>
+    <t>Movimentos</t>
   </si>
 </sst>
 </file>
@@ -114,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -139,25 +280,85 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -165,19 +366,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -185,19 +416,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -205,19 +466,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -225,19 +516,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -245,19 +566,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
